--- a/Hethongquanlylab/wwwroot/data/procedures.xlsx
+++ b/Hethongquanlylab/wwwroot/data/procedures.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -120,6 +120,9 @@
     <t>https://www.plus2net.com43334</t>
   </si>
   <si>
+    <t>Ban Điều hành đã duyệt</t>
+  </si>
+  <si>
     <t>BNS4</t>
   </si>
   <si>
@@ -148,12 +151,6 @@
   </si>
   <si>
     <t>Chưa duyệt</t>
-  </si>
-  <si>
-    <t>Quy trình đào tạo2</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;12321&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -635,7 +632,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>21</v>
@@ -653,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -661,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>17</v>
@@ -673,13 +670,13 @@
         <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>21</v>
@@ -697,7 +694,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DF1198-1635-46FD-9407-5068950E8C9F}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -765,10 +762,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>24</v>
@@ -809,13 +806,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>17</v>
@@ -824,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>20</v>
@@ -853,13 +850,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>17</v>
@@ -868,7 +865,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>20</v>
@@ -889,18 +886,18 @@
         <v>0</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>17</v>
@@ -909,10 +906,10 @@
         <v>18</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H5" s="0" t="b">
         <v>0</v>
@@ -929,8 +926,55 @@
       <c r="L5" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="M5" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="N5" s="0" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Hethongquanlylab/wwwroot/data/procedures.xlsx
+++ b/Hethongquanlylab/wwwroot/data/procedures.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\C#\Hethongquanlylab\Hethongquanlylab\wwwroot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\Hethongquanly\Hethongquanlylab\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845EE123-763E-44D2-8F6C-640D2D4712F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB642A0C-22FE-4721-8450-ADBF6E0F4AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" activeTab="2" xr2:uid="{C9AB2BF0-DA74-4C36-9550-9AB44C18DC50}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{C9AB2BF0-DA74-4C36-9550-9AB44C18DC50}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ban Nhân Sự" sheetId="2" r:id="rId2"/>
-    <sheet name="Ban Đào Tạo" sheetId="3" r:id="rId3"/>
+    <sheet name="Ban Điều Hành duyệt" sheetId="1" r:id="rId1"/>
+    <sheet name="Ban Cố Vấn duyệt" sheetId="4" r:id="rId2"/>
+    <sheet name="Nhà Sáng Lập duyệt" sheetId="5" r:id="rId3"/>
+    <sheet name="Ban Nhân Sự" sheetId="2" r:id="rId4"/>
+    <sheet name="Ban Đào Tạo" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -84,10 +86,37 @@
     <t>EventLog</t>
   </si>
   <si>
-    <t>BNS1</t>
-  </si>
-  <si>
-    <t>Ngô Xuân Hinh2</t>
+    <t>Ban Đào Tạo1</t>
+  </si>
+  <si>
+    <t>Quy trình thưởng Tết</t>
+  </si>
+  <si>
+    <t>Ban Đào Tạo</t>
+  </si>
+  <si>
+    <t>16/09/2022</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mỗi ông 500k&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>https://github.com/Belphegor2801/Hethongquanlylab/tree/master/Hethongquanlylab/wwwroot/data</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Thưởng hẳn 1 củ cho máu&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chưa có phản hồi</t>
+  </si>
+  <si>
+    <t>Ban Điều Hành đã duyệt</t>
+  </si>
+  <si>
+    <t>BNS2</t>
+  </si>
+  <si>
+    <t>Ngô Xuân Hinh123</t>
   </si>
   <si>
     <t>Ban Nhân Sự</t>
@@ -96,61 +125,73 @@
     <t>15/09/2022</t>
   </si>
   <si>
-    <t>&lt;p&gt;13456&lt;/p&gt;</t>
+    <t>&lt;p&gt;123&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>https://www.plus2net.com43334</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Chưa có phản hồi&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>BNS4</t>
+  </si>
+  <si>
+    <t>Quy trình tuyển 5.3ưe344</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sát sao hơn rồi&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>https://www.plus2net.com44</t>
+  </si>
+  <si>
+    <t>Ban Nhân Sự6</t>
+  </si>
+  <si>
+    <t>Thưởng tết</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Tăng lương&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hang xoa = 3</t>
+  </si>
+  <si>
+    <t>subid=BNS4</t>
+  </si>
+  <si>
+    <t>hang xoa = 4</t>
+  </si>
+  <si>
+    <t>subid=Ban Nhân Sự6</t>
+  </si>
+  <si>
+    <t>hang xoa = 2</t>
+  </si>
+  <si>
+    <t>BNS5</t>
+  </si>
+  <si>
+    <t>Ngô Xuân Hinh</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1&lt;/p&gt;</t>
   </si>
   <si>
     <t>https://www.plus2net.com4</t>
   </si>
   <si>
-    <t>Chưa có phản hồi</t>
-  </si>
-  <si>
     <t>Chờ duyệt</t>
   </si>
   <si>
-    <t>BNS2</t>
-  </si>
-  <si>
-    <t>Ngô Xuân Hinh123</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;123&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>https://www.plus2net.com43334</t>
-  </si>
-  <si>
-    <t>Ban Điều hành đã duyệt</t>
-  </si>
-  <si>
-    <t>BNS4</t>
-  </si>
-  <si>
-    <t>Quy trình tuyển 5.3ưe344</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;24&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>https://www.plus2net.com44</t>
-  </si>
-  <si>
-    <t>BNS5</t>
-  </si>
-  <si>
-    <t>Ngô Xuân Hinh</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;1&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Quy trình tuyển 5.333</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;s&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Chưa duyệt</t>
+    <t>Ban Điều Hành trả lại</t>
+  </si>
+  <si>
+    <t>hang xoa = 6</t>
+  </si>
+  <si>
+    <t>subid=Ban Đào Tạo1</t>
   </si>
 </sst>
 </file>
@@ -189,7 +230,6 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,18 +544,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B357BE-472C-4729-B72D-D70006B2101F}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.53125" customWidth="1"/>
-    <col min="4" max="4" width="17.53125" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -567,12 +607,12 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -588,7 +628,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>21</v>
@@ -597,104 +637,173 @@
         <v>0</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="0" t="b">
         <v>0</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="0" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J3" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="0" t="b">
         <v>0</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J4" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="0" t="b">
         <v>0</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="J9" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="J10" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="J11" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -704,14 +813,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DF1198-1635-46FD-9407-5068950E8C9F}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F65C25-F7A4-4092-AD99-8C2E3FDAE8BD}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -761,220 +870,53 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>22</v>
+      <c r="J2" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>22</v>
+      <c r="J3" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>37</v>
+      <c r="J4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>27</v>
+      <c r="J5" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>27</v>
+      <c r="J6" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="J9" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="J10" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="J11" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -984,20 +926,548 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506BC448-9BD1-4EC8-B641-78568FDDD9E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A03DD1D-4E0D-45DD-81F0-1146B29E632E}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="J2" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="J3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="J4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="J9" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="J10" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="J11" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DF1198-1635-46FD-9407-5068950E8C9F}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="J9" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="J10" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="J11" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506BC448-9BD1-4EC8-B641-78568FDDD9E4}">
+  <dimension ref="A2:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="J10" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="J11" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFDF69E2F25F1C4A80F0FEAA8138CCDB" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe923e70f648911530141ebfdc9a4882">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2860ae03-02bd-455e-97e5-3bb4897f97b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9171fb11caf7050feadfe5740d9471f9" ns3:_="">
     <xsd:import namespace="2860ae03-02bd-455e-97e5-3bb4897f97b1"/>
@@ -1173,22 +1643,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ACA1CD9-D4DF-4A7B-8ECE-9D8D5209CA6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2860ae03-02bd-455e-97e5-3bb4897f97b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DC5E854-D858-439B-BCEB-E443416E5990}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5506B35D-7100-472A-8546-075AD64EB5C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1204,28 +1683,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DC5E854-D858-439B-BCEB-E443416E5990}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ACA1CD9-D4DF-4A7B-8ECE-9D8D5209CA6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2860ae03-02bd-455e-97e5-3bb4897f97b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Hethongquanlylab/wwwroot/data/procedures.xlsx
+++ b/Hethongquanlylab/wwwroot/data/procedures.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -155,43 +155,58 @@
     <t>&lt;p&gt;Tăng lương&lt;/p&gt;</t>
   </si>
   <si>
+    <t>subid=BNS4</t>
+  </si>
+  <si>
+    <t>hang xoa = 4</t>
+  </si>
+  <si>
+    <t>hang xoa = 6</t>
+  </si>
+  <si>
+    <t>subid=N/A</t>
+  </si>
+  <si>
+    <t>hang xoa = 2</t>
+  </si>
+  <si>
+    <t>BNS5</t>
+  </si>
+  <si>
+    <t>Ngô Xuân Hinh</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>https://www.plus2net.com4</t>
+  </si>
+  <si>
+    <t>Chờ duyệt</t>
+  </si>
+  <si>
+    <t>Ban Điều Hành trả lại</t>
+  </si>
+  <si>
     <t>hang xoa = 3</t>
   </si>
   <si>
-    <t>subid=BNS4</t>
-  </si>
-  <si>
-    <t>hang xoa = 4</t>
-  </si>
-  <si>
     <t>subid=Ban Nhân Sự6</t>
   </si>
   <si>
-    <t>hang xoa = 2</t>
-  </si>
-  <si>
-    <t>BNS5</t>
-  </si>
-  <si>
-    <t>Ngô Xuân Hinh</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;1&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>https://www.plus2net.com4</t>
-  </si>
-  <si>
-    <t>Chờ duyệt</t>
-  </si>
-  <si>
-    <t>Ban Điều Hành trả lại</t>
-  </si>
-  <si>
-    <t>hang xoa = 6</t>
-  </si>
-  <si>
-    <t>subid=Ban Đào Tạo1</t>
+    <t>123345</t>
+  </si>
+  <si>
+    <t>17/09/2022</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1235&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>https://www.plus2net.com</t>
+  </si>
+  <si>
+    <t>Chưa duyệt</t>
   </si>
 </sst>
 </file>
@@ -786,14 +801,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7">
-      <c r="J7" s="0" t="s">
+    <row r="8">
+      <c r="J8" s="0" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="J9" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -1358,22 +1373,22 @@
     </row>
     <row r="8">
       <c r="J8" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="J9" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="J10" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="J11" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +1409,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>15</v>
@@ -1436,14 +1451,57 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="J9" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="10">
       <c r="J10" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="J11" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Hethongquanlylab/wwwroot/data/procedures.xlsx
+++ b/Hethongquanlylab/wwwroot/data/procedures.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -155,7 +155,22 @@
     <t>&lt;p&gt;Tăng lương&lt;/p&gt;</t>
   </si>
   <si>
-    <t>subid=BNS4</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>123345</t>
+  </si>
+  <si>
+    <t>18/09/2022</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1235&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>https://www.plus2net.com</t>
+  </si>
+  <si>
+    <t>Chờ duyệt</t>
   </si>
   <si>
     <t>hang xoa = 4</t>
@@ -182,9 +197,6 @@
     <t>https://www.plus2net.com4</t>
   </si>
   <si>
-    <t>Chờ duyệt</t>
-  </si>
-  <si>
     <t>Ban Điều Hành trả lại</t>
   </si>
   <si>
@@ -192,21 +204,6 @@
   </si>
   <si>
     <t>subid=Ban Nhân Sự6</t>
-  </si>
-  <si>
-    <t>123345</t>
-  </si>
-  <si>
-    <t>17/09/2022</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;1235&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>https://www.plus2net.com</t>
-  </si>
-  <si>
-    <t>Chưa duyệt</t>
   </si>
 </sst>
 </file>
@@ -559,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B357BE-472C-4729-B72D-D70006B2101F}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:O1"/>
@@ -622,7 +619,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>15</v>
@@ -666,7 +663,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>24</v>
@@ -710,7 +707,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>31</v>
@@ -754,7 +751,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>35</v>
@@ -797,28 +794,64 @@
       </c>
     </row>
     <row r="6">
-      <c r="J6" s="0" t="s">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>38</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="J8" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="J9" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="J10" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="J11" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -886,52 +919,52 @@
     </row>
     <row r="2">
       <c r="J2" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="J3" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="J4" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="J5" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="J6" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="J7" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="J8" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="J9" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="J10" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="J11" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -999,52 +1032,52 @@
     </row>
     <row r="2">
       <c r="J2" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="J3" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="J4" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="J5" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="J6" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="J7" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="J8" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="J9" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="J10" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="J11" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1115,10 +1148,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>26</v>
@@ -1127,10 +1160,10 @@
         <v>27</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H2" s="0" t="b">
         <v>0</v>
@@ -1151,7 +1184,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -1239,7 +1272,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1280,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -1373,22 +1406,22 @@
     </row>
     <row r="8">
       <c r="J8" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="J9" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="J10" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="J11" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1455,20 +1488,23 @@
       <c r="A3" s="0">
         <v>1</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>38</v>
+      </c>
       <c r="C3" s="0" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H3" s="0" t="b">
         <v>0</v>
@@ -1486,22 +1522,27 @@
         <v>0</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="J9" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="J10" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="J11" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
